--- a/data/quest_dialogues_data.xlsx
+++ b/data/quest_dialogues_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Documents\agh\semestr 6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcin\Desktop\Backup\Kolo_game\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B2A03F-BEB3-4C6E-98E6-4D9E0CFEAB6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Questy" sheetId="1" r:id="rId1"/>
@@ -133,7 +134,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -445,20 +446,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="39.5546875" customWidth="1"/>
-    <col min="5" max="5" width="38.77734375" customWidth="1"/>
+    <col min="4" max="4" width="39.5703125" customWidth="1"/>
+    <col min="5" max="5" width="38.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -478,7 +479,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -498,7 +499,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -518,7 +519,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -544,19 +545,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="48.21875" customWidth="1"/>
+    <col min="8" max="8" width="48.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -585,7 +586,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>111</v>
       </c>
@@ -605,7 +606,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>111</v>
       </c>
@@ -625,7 +626,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>111</v>
       </c>
@@ -648,7 +649,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>111</v>
       </c>
@@ -674,7 +675,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>111</v>
       </c>
@@ -697,7 +698,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>111</v>
       </c>
@@ -723,7 +724,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>111</v>
       </c>
@@ -749,7 +750,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>111</v>
       </c>
@@ -775,9 +776,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>111</v>
+        <v>222</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -801,12 +802,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/quest_dialogues_data.xlsx
+++ b/data/quest_dialogues_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcin\Desktop\Backup\Kolo_game\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B2A03F-BEB3-4C6E-98E6-4D9E0CFEAB6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96A2F26-7003-496B-B8C5-3EE53D921EC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Questy" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
   <si>
     <t>QuestID</t>
   </si>
@@ -95,9 +95,6 @@
     <t>Hi!</t>
   </si>
   <si>
-    <t>Here's the cash for quest.</t>
-  </si>
-  <si>
     <t>Cool, I like cash</t>
   </si>
   <si>
@@ -129,6 +126,36 @@
   </si>
   <si>
     <t>Hello there, random stranger!</t>
+  </si>
+  <si>
+    <t>Here's the cash for the quest.</t>
+  </si>
+  <si>
+    <t>Hello!</t>
+  </si>
+  <si>
+    <t>I have a quest for Ya my hommie.</t>
+  </si>
+  <si>
+    <t>Come back here when You kill this bad boy :P</t>
+  </si>
+  <si>
+    <t>I will handle it!</t>
+  </si>
+  <si>
+    <t>I need someone to kill Hugo the hobogoblin, who threats the locals.</t>
+  </si>
+  <si>
+    <t>I do not have time for this right now.</t>
+  </si>
+  <si>
+    <t>Nice to meet Ya!</t>
+  </si>
+  <si>
+    <t>Passing by</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
 </sst>
 </file>
@@ -447,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,39 +508,39 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="F2">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -521,21 +548,41 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>200</v>
       </c>
     </row>
@@ -546,15 +593,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="48.28515625" customWidth="1"/>
+    <col min="8" max="8" width="61.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -594,7 +642,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -603,7 +651,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -614,7 +662,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -623,7 +671,7 @@
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -634,19 +682,16 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -657,22 +702,19 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -683,19 +725,19 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -706,22 +748,16 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
       </c>
       <c r="E7">
-        <v>4</v>
-      </c>
-      <c r="F7">
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -732,22 +768,16 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
       </c>
       <c r="E8">
-        <v>4</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -758,42 +788,206 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
       </c>
       <c r="E9">
-        <v>4</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>111</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>111</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>111</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>111</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>111</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>111</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="H15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>222</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
         <v>17</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="H10" t="s">
-        <v>33</v>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>222</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/data/quest_dialogues_data.xlsx
+++ b/data/quest_dialogues_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcin\Desktop\Backup\Kolo_game\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcin\Desktop\pygame\Kolo_game\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96A2F26-7003-496B-B8C5-3EE53D921EC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A4D091-E6D7-4246-8F17-EB5C9777F32E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Questy" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>QuestID</t>
   </si>
@@ -44,9 +44,6 @@
     <t xml:space="preserve">Reward </t>
   </si>
   <si>
-    <t>Kill 3 groups of bandits in location #12</t>
-  </si>
-  <si>
     <t>Persuade npc#21 to stay home</t>
   </si>
   <si>
@@ -95,39 +92,12 @@
     <t>Hi!</t>
   </si>
   <si>
-    <t>Cool, I like cash</t>
-  </si>
-  <si>
-    <t>[CHA] That quest was hard, reward should be bigger</t>
-  </si>
-  <si>
-    <t>I'll just kill you and take more cash</t>
-  </si>
-  <si>
-    <t>Cool, here's cash.</t>
-  </si>
-  <si>
-    <t>Ok, I'll give you item as an extra</t>
-  </si>
-  <si>
-    <t>Oh shit</t>
-  </si>
-  <si>
     <t>True</t>
   </si>
   <si>
     <t>Cha:13</t>
   </si>
   <si>
-    <t>Fight_Init</t>
-  </si>
-  <si>
-    <t>Gold+=100;Item#20</t>
-  </si>
-  <si>
-    <t>Hello there, random stranger!</t>
-  </si>
-  <si>
     <t>Here's the cash for the quest.</t>
   </si>
   <si>
@@ -137,25 +107,56 @@
     <t>I have a quest for Ya my hommie.</t>
   </si>
   <si>
-    <t>Come back here when You kill this bad boy :P</t>
-  </si>
-  <si>
-    <t>I will handle it!</t>
-  </si>
-  <si>
-    <t>I need someone to kill Hugo the hobogoblin, who threats the locals.</t>
-  </si>
-  <si>
-    <t>I do not have time for this right now.</t>
-  </si>
-  <si>
-    <t>Nice to meet Ya!</t>
-  </si>
-  <si>
     <t>Passing by</t>
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>1. I will handle it!
+2. I do not have time for this right now.</t>
+  </si>
+  <si>
+    <t>CurrentStage</t>
+  </si>
+  <si>
+    <t>Farewell!</t>
+  </si>
+  <si>
+    <t>I need someone to give my regards to Mr. MIME from the castle.</t>
+  </si>
+  <si>
+    <t>Cool, cool, cool, cool… Thx!</t>
+  </si>
+  <si>
+    <t>Give regards from Snorlax</t>
+  </si>
+  <si>
+    <t>1. Snorlax from the swamp greets You !</t>
+  </si>
+  <si>
+    <t>Hey, How You Doin'?</t>
+  </si>
+  <si>
+    <t>Great! Thanks :)</t>
+  </si>
+  <si>
+    <t>Come back when You fullfill my will.</t>
+  </si>
+  <si>
+    <t>1. Cool, I like cash
+2. [CHA] That quest was hard, reward should be bigger
+3. I'll just kill you and take more cash</t>
+  </si>
+  <si>
+    <t>1. Cool, here's cash.
+2. Ok, I'll give you item as an extra
+3. Oh shit</t>
+  </si>
+  <si>
+    <t>1. Gold+=100
+2. Gold+=100;Item#20
+3. Fight_Init</t>
   </si>
 </sst>
 </file>
@@ -192,8 +193,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -476,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,7 +507,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -517,10 +521,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -534,13 +538,13 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -557,10 +561,10 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
         <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
       </c>
       <c r="F4">
         <v>100</v>
@@ -571,16 +575,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
         <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
       </c>
       <c r="F5">
         <v>200</v>
@@ -593,119 +597,126 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="61.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
       <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>111</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>111</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>111</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>111</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -713,105 +724,111 @@
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="H5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H5" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>111</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>111</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>111</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>111</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="J9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>111</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -819,175 +836,126 @@
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H10" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>111</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>111</v>
+        <v>222</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="J12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>111</v>
+        <v>222</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>4</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>111</v>
+        <v>222</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>111</v>
+        <v>222</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15">
-        <v>4</v>
-      </c>
-      <c r="F15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>222</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="H16" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>222</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="H17" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/data/quest_dialogues_data.xlsx
+++ b/data/quest_dialogues_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcin\Desktop\pygame\Kolo_game\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A4D091-E6D7-4246-8F17-EB5C9777F32E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41902A64-4C98-462C-B6B3-3D05F12928C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
   <si>
     <t>QuestID</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>Gold+=100</t>
-  </si>
-  <si>
-    <t>Player</t>
   </si>
   <si>
     <t>Segment</t>
@@ -130,9 +127,6 @@
   </si>
   <si>
     <t>Give regards from Snorlax</t>
-  </si>
-  <si>
-    <t>1. Snorlax from the swamp greets You !</t>
   </si>
   <si>
     <t>Hey, How You Doin'?</t>
@@ -157,6 +151,13 @@
     <t>1. Gold+=100
 2. Gold+=100;Item#20
 3. Fight_Init</t>
+  </si>
+  <si>
+    <t>1. Snorlax from the swamp greets You !
+2. Just passing by</t>
+  </si>
+  <si>
+    <t>Interact</t>
   </si>
 </sst>
 </file>
@@ -521,10 +522,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
         <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -541,7 +542,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -600,7 +601,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,25 +622,25 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
       <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" t="s">
-        <v>19</v>
-      </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -653,16 +654,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -676,13 +677,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -696,13 +700,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -716,16 +723,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -739,13 +749,16 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="J6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -759,16 +772,16 @@
         <v>0.5</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -782,16 +795,16 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -805,16 +818,16 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J9" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -828,19 +841,22 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="J10" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -854,19 +870,22 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>4</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="J11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -880,16 +899,16 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -903,16 +922,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="J13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>222</v>
       </c>
@@ -923,19 +945,19 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -949,13 +971,16 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="J15" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/data/quest_dialogues_data.xlsx
+++ b/data/quest_dialogues_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcin\Desktop\pygame\Kolo_game\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41902A64-4C98-462C-B6B3-3D05F12928C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C869FFF1-722E-4102-9DB8-3B0AB23B6D53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -86,66 +86,22 @@
     <t>Reward</t>
   </si>
   <si>
-    <t>Hi!</t>
-  </si>
-  <si>
     <t>True</t>
   </si>
   <si>
     <t>Cha:13</t>
   </si>
   <si>
-    <t>Here's the cash for the quest.</t>
-  </si>
-  <si>
-    <t>Hello!</t>
-  </si>
-  <si>
-    <t>I have a quest for Ya my hommie.</t>
-  </si>
-  <si>
     <t>Passing by</t>
   </si>
   <si>
     <t>None</t>
   </si>
   <si>
-    <t>1. I will handle it!
-2. I do not have time for this right now.</t>
-  </si>
-  <si>
     <t>CurrentStage</t>
   </si>
   <si>
-    <t>Farewell!</t>
-  </si>
-  <si>
-    <t>I need someone to give my regards to Mr. MIME from the castle.</t>
-  </si>
-  <si>
-    <t>Cool, cool, cool, cool… Thx!</t>
-  </si>
-  <si>
     <t>Give regards from Snorlax</t>
-  </si>
-  <si>
-    <t>Hey, How You Doin'?</t>
-  </si>
-  <si>
-    <t>Great! Thanks :)</t>
-  </si>
-  <si>
-    <t>Come back when You fullfill my will.</t>
-  </si>
-  <si>
-    <t>1. Cool, I like cash
-2. [CHA] That quest was hard, reward should be bigger
-3. I'll just kill you and take more cash</t>
-  </si>
-  <si>
-    <t>1. Cool, here's cash.
-2. Ok, I'll give you item as an extra
-3. Oh shit</t>
   </si>
   <si>
     <t>1. Gold+=100
@@ -153,11 +109,59 @@
 3. Fight_Init</t>
   </si>
   <si>
-    <t>1. Snorlax from the swamp greets You !
+    <t>Interact</t>
+  </si>
+  <si>
+    <t>Snorlax:    Hello!</t>
+  </si>
+  <si>
+    <t>Snorlax:    I have a quest for Ya my hommie.</t>
+  </si>
+  <si>
+    <t>Snorlax:    I need someone to give my regards to Mr. MIME from the castle.</t>
+  </si>
+  <si>
+    <t>Snorlax:    Farewell!</t>
+  </si>
+  <si>
+    <t>Snorlax:    Come back when You fullfill my will.</t>
+  </si>
+  <si>
+    <t>Snorlax:    Hi!</t>
+  </si>
+  <si>
+    <t>Snorlax:    Here's the cash for the quest.</t>
+  </si>
+  <si>
+    <t>Snorlax:    
+1. Cool, here's cash.
+2. Ok, I'll give you item as an extra
+3. Oh shit</t>
+  </si>
+  <si>
+    <t>Mr. Mime:    Hey, How You Doin'?</t>
+  </si>
+  <si>
+    <t>Mr. Mime:    Cool, cool, cool, cool… Thx!</t>
+  </si>
+  <si>
+    <t>Me:    Great! Thanks :)</t>
+  </si>
+  <si>
+    <t>Me:    
+1. Snorlax from the swamp greets You !
 2. Just passing by</t>
   </si>
   <si>
-    <t>Interact</t>
+    <t>Me:    
+1. Cool, I like cash
+2. [CHA] That quest was hard, reward should be bigger
+3. I'll just kill you and take more cash</t>
+  </si>
+  <si>
+    <t>Me:    
+1. I will handle it!
+2. I do not have time for this right now.</t>
   </si>
 </sst>
 </file>
@@ -522,10 +526,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -542,7 +546,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -601,7 +605,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="H18" sqref="H17:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,7 +626,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
         <v>13</v>
@@ -640,7 +644,7 @@
         <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -660,10 +664,10 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -683,10 +687,10 @@
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -706,13 +710,13 @@
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>111</v>
       </c>
@@ -723,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -732,10 +736,10 @@
         <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="J5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -755,10 +759,10 @@
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -778,7 +782,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="J7" t="s">
         <v>15</v>
@@ -801,7 +805,7 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="J8" t="s">
         <v>15</v>
@@ -824,13 +828,13 @@
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="J9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>111</v>
       </c>
@@ -841,7 +845,7 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -850,16 +854,16 @@
         <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>111</v>
       </c>
@@ -879,10 +883,10 @@
         <v>3</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="J11" t="s">
         <v>15</v>
@@ -905,10 +909,10 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -928,13 +932,13 @@
         <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>222</v>
       </c>
@@ -945,7 +949,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -954,7 +958,7 @@
         <v>2</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J14" t="s">
         <v>15</v>
@@ -977,7 +981,7 @@
         <v>2</v>
       </c>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J15" t="s">
         <v>15</v>

--- a/data/quest_dialogues_data.xlsx
+++ b/data/quest_dialogues_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcin\Desktop\pygame\Kolo_game\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C869FFF1-722E-4102-9DB8-3B0AB23B6D53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330855B8-B28E-41C8-AA7B-2B1C4466AF31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
   <si>
     <t>QuestID</t>
   </si>
@@ -104,11 +104,6 @@
     <t>Give regards from Snorlax</t>
   </si>
   <si>
-    <t>1. Gold+=100
-2. Gold+=100;Item#20
-3. Fight_Init</t>
-  </si>
-  <si>
     <t>Interact</t>
   </si>
   <si>
@@ -121,9 +116,6 @@
     <t>Snorlax:    I need someone to give my regards to Mr. MIME from the castle.</t>
   </si>
   <si>
-    <t>Snorlax:    Farewell!</t>
-  </si>
-  <si>
     <t>Snorlax:    Come back when You fullfill my will.</t>
   </si>
   <si>
@@ -131,12 +123,6 @@
   </si>
   <si>
     <t>Snorlax:    Here's the cash for the quest.</t>
-  </si>
-  <si>
-    <t>Snorlax:    
-1. Cool, here's cash.
-2. Ok, I'll give you item as an extra
-3. Oh shit</t>
   </si>
   <si>
     <t>Mr. Mime:    Hey, How You Doin'?</t>
@@ -162,6 +148,39 @@
     <t>Me:    
 1. I will handle it!
 2. I do not have time for this right now.</t>
+  </si>
+  <si>
+    <t>Choice</t>
+  </si>
+  <si>
+    <t>Snorlax:    Ok, I'll give you sth extra</t>
+  </si>
+  <si>
+    <t>Snorlax:    Oh…. Shit....</t>
+  </si>
+  <si>
+    <t>Snorlax:    1. Cool, here's cash.</t>
+  </si>
+  <si>
+    <t>2. Gold+=100;Item#20</t>
+  </si>
+  <si>
+    <t>3. Fight_Init</t>
+  </si>
+  <si>
+    <t>1. Gold+=100</t>
+  </si>
+  <si>
+    <t>Mr. Mime:    Bye!</t>
+  </si>
+  <si>
+    <t>Snorlax:    You da best! Farewell!</t>
+  </si>
+  <si>
+    <t>Snorlax:    Maybe next time :), Farewell!</t>
+  </si>
+  <si>
+    <t>Me:    See Ya later my friend!</t>
   </si>
 </sst>
 </file>
@@ -602,20 +621,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H17:H18"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="61.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="68.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.85546875" customWidth="1"/>
     <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -626,7 +646,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
         <v>13</v>
@@ -646,8 +666,11 @@
       <c r="J1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>111</v>
       </c>
@@ -664,13 +687,16 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>111</v>
       </c>
@@ -687,13 +713,13 @@
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>111</v>
       </c>
@@ -710,13 +736,13 @@
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>111</v>
       </c>
@@ -736,13 +762,13 @@
         <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>111</v>
       </c>
@@ -759,232 +785,353 @@
         <v>5</v>
       </c>
       <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>111</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>111</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="H8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>111</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0.5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>111</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
         <v>30</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>111</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>111</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>111</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>0.5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>111</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>111</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>111</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>111</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>222</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
         <v>32</v>
       </c>
-      <c r="J8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>111</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="J16" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>222</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>222</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>222</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="H19" t="s">
         <v>33</v>
       </c>
-      <c r="J9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>111</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10">
+      <c r="K19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>222</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20">
         <v>3</v>
       </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>111</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11">
-        <v>4</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>222</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="H12" t="s">
-        <v>35</v>
-      </c>
-      <c r="J12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>222</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="H13" t="s">
-        <v>37</v>
-      </c>
-      <c r="J13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>222</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>222</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="H15" t="s">
-        <v>36</v>
-      </c>
-      <c r="J15" t="s">
-        <v>15</v>
+      <c r="H20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/quest_dialogues_data.xlsx
+++ b/data/quest_dialogues_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcin\Desktop\pygame\Kolo_game\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcin\Desktop\KOLO\Kolo_game\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330855B8-B28E-41C8-AA7B-2B1C4466AF31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497E5CFC-5E4E-41C2-9DD7-217197907891}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -159,9 +159,6 @@
     <t>Snorlax:    Oh…. Shit....</t>
   </si>
   <si>
-    <t>Snorlax:    1. Cool, here's cash.</t>
-  </si>
-  <si>
     <t>2. Gold+=100;Item#20</t>
   </si>
   <si>
@@ -181,6 +178,9 @@
   </si>
   <si>
     <t>Me:    See Ya later my friend!</t>
+  </si>
+  <si>
+    <t>Snorlax:    Cool, here's cash.</t>
   </si>
 </sst>
 </file>
@@ -505,7 +505,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,7 +562,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -624,7 +624,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,7 +785,7 @@
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -808,7 +808,7 @@
         <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -831,7 +831,7 @@
         <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -952,10 +952,10 @@
         <v>4</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -981,7 +981,7 @@
         <v>39</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1007,7 +1007,7 @@
         <v>40</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1128,7 +1128,7 @@
         <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K20">
         <v>2</v>

--- a/data/quest_dialogues_data.xlsx
+++ b/data/quest_dialogues_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcin\Desktop\KOLO\Kolo_game\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcin\Desktop\Kolo_game\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497E5CFC-5E4E-41C2-9DD7-217197907891}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940EB4FE-7CAA-4EC4-920C-E2B79CF1585B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
   <si>
     <t>QuestID</t>
   </si>
@@ -41,18 +41,9 @@
     <t>Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Reward </t>
-  </si>
-  <si>
     <t>Persuade npc#21 to stay home</t>
   </si>
   <si>
-    <t>Item#12;reputation?</t>
-  </si>
-  <si>
-    <t>Gold+=150;Item#20;Item#5;</t>
-  </si>
-  <si>
     <t>Exp</t>
   </si>
   <si>
@@ -63,9 +54,6 @@
   </si>
   <si>
     <t>Kill hobgoblin in location #6</t>
-  </si>
-  <si>
-    <t>Gold+=100</t>
   </si>
   <si>
     <t>Segment</t>
@@ -181,6 +169,15 @@
   </si>
   <si>
     <t>Snorlax:    Cool, here's cash.</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>#12</t>
   </si>
 </sst>
 </file>
@@ -502,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,7 +511,7 @@
     <col min="5" max="5" width="38.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -528,13 +525,16 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -545,16 +545,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -565,16 +568,19 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>150</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -585,16 +591,19 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -605,12 +614,15 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5">
         <v>200</v>
       </c>
     </row>
@@ -624,7 +636,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,37 +649,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" t="s">
-        <v>18</v>
-      </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -681,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
         <v>15</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -707,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -730,13 +742,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -753,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -762,7 +774,7 @@
         <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -779,13 +791,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -802,13 +814,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -819,19 +831,19 @@
         <v>111</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -848,13 +860,13 @@
         <v>0.5</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -871,13 +883,13 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -894,13 +906,13 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -917,7 +929,7 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -926,10 +938,10 @@
         <v>3</v>
       </c>
       <c r="G12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -946,16 +958,16 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E13">
         <v>4</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -972,16 +984,16 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E14">
         <v>5</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -998,16 +1010,16 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E15">
         <v>6</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1024,16 +1036,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" t="s">
         <v>15</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="H16" t="s">
-        <v>32</v>
-      </c>
-      <c r="J16" t="s">
-        <v>19</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1050,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1073,7 +1085,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1082,7 +1094,7 @@
         <v>2</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1099,13 +1111,13 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="H19" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1116,19 +1128,19 @@
         <v>222</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E20">
         <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K20">
         <v>2</v>

--- a/data/quest_dialogues_data.xlsx
+++ b/data/quest_dialogues_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcin\Desktop\Kolo_game\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940EB4FE-7CAA-4EC4-920C-E2B79CF1585B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E95976-73C4-4DC0-B919-09F3360279FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="52">
   <si>
     <t>QuestID</t>
   </si>
@@ -127,17 +127,6 @@
 2. Just passing by</t>
   </si>
   <si>
-    <t>Me:    
-1. Cool, I like cash
-2. [CHA] That quest was hard, reward should be bigger
-3. I'll just kill you and take more cash</t>
-  </si>
-  <si>
-    <t>Me:    
-1. I will handle it!
-2. I do not have time for this right now.</t>
-  </si>
-  <si>
     <t>Choice</t>
   </si>
   <si>
@@ -178,6 +167,24 @@
   </si>
   <si>
     <t>#12</t>
+  </si>
+  <si>
+    <t>Blastoise:    I'll catch You next time !</t>
+  </si>
+  <si>
+    <t>Me:    2. Run away !    3. Defend yourself !</t>
+  </si>
+  <si>
+    <t>Me:    1. Cool, I like cash    2. [CHA] That quest was hard, reward should be bigger    3. I'll just kill you and take more cash</t>
+  </si>
+  <si>
+    <t>Me:    1. I will handle it!    2. I do not have time for this right now.</t>
+  </si>
+  <si>
+    <t>Blastoise:    I'll kill Ya !</t>
+  </si>
+  <si>
+    <t>Delete</t>
   </si>
 </sst>
 </file>
@@ -214,9 +221,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -502,7 +512,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,10 +535,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -597,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G4">
         <v>100</v>
@@ -611,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -633,10 +643,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,9 +655,10 @@
     <col min="9" max="9" width="20.85546875" customWidth="1"/>
     <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -679,10 +690,13 @@
         <v>19</v>
       </c>
       <c r="K1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="L1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>111</v>
       </c>
@@ -708,7 +722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>111</v>
       </c>
@@ -731,7 +745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>111</v>
       </c>
@@ -754,7 +768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>111</v>
       </c>
@@ -774,13 +788,13 @@
         <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>111</v>
       </c>
@@ -797,13 +811,13 @@
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>111</v>
       </c>
@@ -820,18 +834,21 @@
         <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>111</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -843,13 +860,13 @@
         <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>111</v>
       </c>
@@ -872,7 +889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>111</v>
       </c>
@@ -895,7 +912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>111</v>
       </c>
@@ -918,7 +935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>111</v>
       </c>
@@ -941,13 +958,13 @@
         <v>16</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>111</v>
       </c>
@@ -964,16 +981,16 @@
         <v>4</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>111</v>
       </c>
@@ -990,16 +1007,19 @@
         <v>5</v>
       </c>
       <c r="H14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="K14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>111</v>
       </c>
@@ -1016,16 +1036,16 @@
         <v>6</v>
       </c>
       <c r="H15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="K15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>222</v>
       </c>
@@ -1051,7 +1071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>222</v>
       </c>
@@ -1074,7 +1094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>222</v>
       </c>
@@ -1100,7 +1120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>222</v>
       </c>
@@ -1123,12 +1143,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>222</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1140,10 +1160,109 @@
         <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K20">
         <v>2</v>
+      </c>
+      <c r="L20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>333</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J21" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>333</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="K22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>333</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>333</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="H24" t="s">
+        <v>50</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
